--- a/VRPSOLVER/data.xlsx
+++ b/VRPSOLVER/data.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-7</v>
+        <v>-161</v>
       </c>
       <c r="C2" t="n">
-        <v>-112</v>
+        <v>577</v>
       </c>
       <c r="D2" t="n">
-        <v>558</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284</v>
+        <v>-75</v>
       </c>
       <c r="C3" t="n">
-        <v>-417</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-175</v>
+        <v>-151</v>
       </c>
       <c r="C4" t="n">
-        <v>-873</v>
+        <v>-167</v>
       </c>
       <c r="D4" t="n">
-        <v>506</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C5" t="n">
-        <v>-444</v>
+        <v>-422</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>404</v>
+        <v>-775</v>
       </c>
       <c r="C6" t="n">
-        <v>-799</v>
+        <v>354</v>
       </c>
       <c r="D6" t="n">
-        <v>37</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-505</v>
+        <v>683</v>
       </c>
       <c r="C7" t="n">
-        <v>425</v>
+        <v>-222</v>
       </c>
       <c r="D7" t="n">
-        <v>252</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-182</v>
+        <v>133</v>
       </c>
       <c r="C8" t="n">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="D8" t="n">
-        <v>229</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-590</v>
+        <v>477</v>
       </c>
       <c r="C9" t="n">
-        <v>363</v>
+        <v>792</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175</v>
+        <v>-468</v>
       </c>
       <c r="C10" t="n">
-        <v>796</v>
+        <v>-749</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-460</v>
+        <v>-238</v>
       </c>
       <c r="C11" t="n">
-        <v>-338</v>
+        <v>-248</v>
       </c>
       <c r="D11" t="n">
-        <v>555</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805</v>
+        <v>758</v>
       </c>
       <c r="C12" t="n">
-        <v>-409</v>
+        <v>-720</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>602</v>
+        <v>931</v>
       </c>
       <c r="C13" t="n">
-        <v>-921</v>
+        <v>338</v>
       </c>
       <c r="D13" t="n">
-        <v>382</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-334</v>
+        <v>-422</v>
       </c>
       <c r="C14" t="n">
-        <v>-59</v>
+        <v>243</v>
       </c>
       <c r="D14" t="n">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-994</v>
+        <v>982</v>
       </c>
       <c r="C15" t="n">
-        <v>-725</v>
+        <v>-242</v>
       </c>
       <c r="D15" t="n">
-        <v>445</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25</v>
+        <v>-499</v>
       </c>
       <c r="C16" t="n">
-        <v>294</v>
+        <v>933</v>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>594</v>
+        <v>393</v>
       </c>
       <c r="C17" t="n">
-        <v>-749</v>
+        <v>-709</v>
       </c>
       <c r="D17" t="n">
-        <v>494</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>790</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>-188</v>
+        <v>-490</v>
       </c>
       <c r="D18" t="n">
-        <v>515</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-819</v>
+        <v>-921</v>
       </c>
       <c r="C19" t="n">
-        <v>271</v>
+        <v>-653</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>783</v>
+        <v>451</v>
       </c>
       <c r="C20" t="n">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="D20" t="n">
-        <v>468</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="C21" t="n">
-        <v>950</v>
+        <v>-899</v>
       </c>
       <c r="D21" t="n">
-        <v>415</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188</v>
+        <v>480</v>
       </c>
       <c r="C22" t="n">
-        <v>451</v>
+        <v>-505</v>
       </c>
       <c r="D22" t="n">
-        <v>589</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-380</v>
+        <v>-790</v>
       </c>
       <c r="C23" t="n">
-        <v>-975</v>
+        <v>-247</v>
       </c>
       <c r="D23" t="n">
-        <v>516</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>974</v>
+        <v>-295</v>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>-651</v>
       </c>
       <c r="D24" t="n">
-        <v>337</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-501</v>
+        <v>869</v>
       </c>
       <c r="C25" t="n">
-        <v>-227</v>
+        <v>-835</v>
       </c>
       <c r="D25" t="n">
-        <v>586</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-605</v>
+        <v>211</v>
       </c>
       <c r="C26" t="n">
-        <v>-309</v>
+        <v>536</v>
       </c>
       <c r="D26" t="n">
-        <v>591</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
